--- a/youtube_sentiment_report.xlsx
+++ b/youtube_sentiment_report.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,38 +555,38 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1662</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1544</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>-1.000</t>
         </is>
       </c>
     </row>
@@ -3258,6 +3258,167 @@
         <v>1</v>
       </c>
       <c r="I84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
+      <c r="C85" s="2" t="n"/>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+      <c r="G85" s="2" t="n"/>
+      <c r="H85" s="2" t="n"/>
+      <c r="I85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <f>== Updated 2025-10-16 20:13:50 ===</f>
+        <v/>
+      </c>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
+      <c r="C87" s="2" t="n"/>
+      <c r="D87" s="2" t="n"/>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="2" t="n"/>
+      <c r="H87" s="2" t="n"/>
+      <c r="I87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Venkata Rami Reddy Fires On Chandrababu | AP Gover</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Sakshi TV Live</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <f>== Updated 2025-10-16 20:46:23 ===</f>
+        <v/>
+      </c>
+      <c r="B89" s="2" t="n"/>
+      <c r="C89" s="2" t="n"/>
+      <c r="D89" s="2" t="n"/>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+      <c r="H89" s="2" t="n"/>
+      <c r="I89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Speaker Ayyannapatrudu Reads Jagan Letter In AP As</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Cloud Media</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Minister Atchannaidu Fires on YS Jagan | Onion Far</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TV5 News </t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I91" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3283,13 +3444,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8">
-        <f>== Updated 2025-10-16 15:07:52 ===
+        <f>== Updated 2025-10-16 21:26:33 ===
 AI-Generated Political Issues Analysis (Cumulative)
-The political landscape in Andhra Pradesh, as revealed through the analysis of 64 YouTube videos, underscores a significant preoccupation with issues of governance, corruption, and political dynamics. With 12 distinct political issues identified, the overwhelming sentiment is negative, reflecting widespread dissatisfaction among the public.
-The most contentious issues primarily fall under the category of Political Governance, which accounts for nine out of the twelve identified concerns. High-confidence issues such as the audio leak involving Minister Narayana raise alarms about potential internal conflicts within the ruling party, suggesting a troubling lack of cohesion and transparency in governance. The implications of this leak not only highlight the fragility of political alliances but also raise questions about the integrity of democratic processes, particularly with allegations of mutual understanding between political parties that may undermine electoral fairness.
-Moreover, the mention of ineffective development initiatives in Pithapuram emphasizes a critical gap in Infrastructure Development, reflecting public frustration over unmet expectations in governmental projects. Concerns surrounding the silence of prominent political figures, like Pawan Kalyan regarding TDP leader Sudhir Reddy's actions, further exacerbate the discourse on Political Governance, indicating a perceived lack of accountability and responsiveness from key leaders.
-Overall, these findings reveal a political climate characterized by mistrust and disillusionment, with a clear public priority on transparency and effective governance. As political rivalries intensify, particularly between TDP and YCP, the implications for electoral outcomes and policy initiatives in Andhra Pradesh could be profound, necessitating a reevaluation of strategies by all political entities involved.
-This cumulative analysis was generated by AI based on identified political issues from 64 videos.</f>
+The analysis of 70 YouTube videos focusing on Andhra Pradesh politics reveals significant public discontent, particularly surrounding three key issues: agricultural support, political governance, and economic development. These issues are categorized under negative sentiment, indicating a prevailing dissatisfaction with the current administration led by YS Jagan Mohan Reddy.
+One of the most prominent concerns is the criticism of Jagan's leadership regarding agricultural support, specifically the availability of fertilizers. This issue underscores a broader narrative of perceived governmental failure in addressing the needs of farmers, a crucial demographic in Andhra Pradesh's economy. Comments reflecting a failure in agricultural governance further exacerbate public sentiment, highlighting a disconnect between the government’s initiatives and the on-ground realities faced by the agricultural community.
+Moreover, public dissatisfaction with the overall effectiveness of government initiatives impacting farmers suggests a critical examination of economic development policies. This sentiment not only reveals the challenges in policy implementation but also signals a potential risk for the ruling party, as agricultural distress can have far-reaching social and electoral implications.
+In the context of Andhra Pradesh's political landscape, these findings illuminate the urgent need for the government to address these contentious issues. The lack of positive sentiment surrounding these themes indicates a pressing demand for accountability and effective governance. As discourse shifts towards these priorities, it is essential for policymakers to recalibrate their strategies, ensuring that they resonate with the public's concerns, particularly in agricultural and economic spheres.
+This cumulative analysis was generated by AI based on identified political issues from 70 videos.</f>
         <v/>
       </c>
     </row>
@@ -3304,7 +3465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5668,6 +5829,114 @@
         <v>1</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>Venkata Rami Reddy Fires On Chandrababu | AP Gover</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Sakshi TV Live</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>Speaker Ayyannapatrudu Reads Jagan Letter In AP As</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Cloud Media</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>Minister Atchannaidu Fires on YS Jagan | Onion Far</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TV5 News </t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5679,7 +5948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,6 +9368,204 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Venkata Rami Reddy</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" s="5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E104" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>AP Government Employees</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E105" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G105" s="5" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>PRC fitment</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" s="5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E106" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>Dearness Allowance</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E107" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G107" s="5" t="inlineStr">
+        <is>
+          <t>0.860</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>political criticism</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>employee welfare</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E109" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G109" s="5" t="inlineStr">
+        <is>
+          <t>0.840</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9110,7 +9577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14639,6 +15106,402 @@
       <c r="G167" s="6" t="inlineStr">
         <is>
           <t>0.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="6" t="inlineStr">
+        <is>
+          <t>Jagan Letter</t>
+        </is>
+      </c>
+      <c r="B168" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C168" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D168" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E168" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F168" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G168" s="6" t="inlineStr">
+        <is>
+          <t>0.863</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>AP Assembly</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C169" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F169" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G169" s="6" t="inlineStr">
+        <is>
+          <t>0.863</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6" t="inlineStr">
+        <is>
+          <t>Political Crisis</t>
+        </is>
+      </c>
+      <c r="B170" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C170" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D170" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F170" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G170" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>Naidu vs Jagan</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C171" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E171" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F171" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G171" s="6" t="inlineStr">
+        <is>
+          <t>0.860</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="6" t="inlineStr">
+        <is>
+          <t>Opposition Rights</t>
+        </is>
+      </c>
+      <c r="B172" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C172" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D172" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E172" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F172" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G172" s="6" t="inlineStr">
+        <is>
+          <t>0.843</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>YSRC Boycott</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C173" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F173" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G173" s="6" t="inlineStr">
+        <is>
+          <t>0.860</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6" t="inlineStr">
+        <is>
+          <t>AP Assembly Session</t>
+        </is>
+      </c>
+      <c r="B174" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C174" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D174" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F174" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G174" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Atchannaidu</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C175" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F175" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G175" s="6" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="6" t="inlineStr">
+        <is>
+          <t>onion farmers</t>
+        </is>
+      </c>
+      <c r="B176" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C176" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D176" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F176" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G176" s="6" t="inlineStr">
+        <is>
+          <t>0.845</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>political news</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C177" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F177" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G177" s="6" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="6" t="inlineStr">
+        <is>
+          <t>Telugu states</t>
+        </is>
+      </c>
+      <c r="B178" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C178" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D178" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E178" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F178" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G178" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>agricultural policies</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C179" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E179" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F179" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G179" s="6" t="inlineStr">
+        <is>
+          <t>0.845</t>
         </is>
       </c>
     </row>
@@ -16415,7 +17278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19329,6 +20192,259 @@
         <v>1</v>
       </c>
       <c r="E126" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Government Employees' PRC Fitment and DA Issues</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>0.900</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="inlineStr">
+        <is>
+          <t>Unfulfilled Arrears and Reduction in Interim Relief</t>
+        </is>
+      </c>
+      <c r="B128" s="6" t="inlineStr">
+        <is>
+          <t>Economic Development</t>
+        </is>
+      </c>
+      <c r="C128" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Protests Against Government Policy on Employee Financial Benefits</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>0.800</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>Allegations Against Current Government's Handling of Employee Welfare</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
+        <is>
+          <t>Social Welfare Schemes</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Opposition Rights and Legislative Procedures</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>0.900</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>Corruption Allegations Against Leaders</t>
+        </is>
+      </c>
+      <c r="B132" s="6" t="inlineStr">
+        <is>
+          <t>Corruption &amp; Transparency</t>
+        </is>
+      </c>
+      <c r="C132" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Ineffective Assembly Discussions</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>0.800</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>Prioritization of Political Drama over Public Issues</t>
+        </is>
+      </c>
+      <c r="B134" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Criticism of YS Jagan's leadership regarding agricultural support, particularly concerning fertilizer availability.</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>Agricultural Support</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>0.900</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>Comments suggesting a failure in agricultural governance under the current leadership.</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Public dissatisfaction with the effectiveness of the current government's initiatives impacting farmers.</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>Economic Development</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>0.800</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -19800,13 +20916,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8">
-        <f>== Updated 2025-10-16 15:07:46 ===
+        <f>== Updated 2025-10-16 21:26:27 ===
 AI-Generated Keyword Analysis Summary (Cumulative)
-The sentiment analysis of 64 YouTube videos related to Andhra Pradesh politics reveals a starkly negative public sentiment, with an overwhelming 100% of comments reflecting dissatisfaction. This trend indicates a deep-seated discontent among viewers regarding the current political landscape, particularly concerning key figures and political parties.
-Notably, the top keywords such as 'Minister Narayana,' 'Pithapuram,' 'TDP Leader Varma,' 'Chandrababu,' and 'Pawan Kalyan' are indicative of the primary actors in this political discourse. The absence of positive keywords underscores the absence of optimism or support for these figures, suggesting that they are viewed critically by the electorate. The repeated mentions of these individuals highlight their polarizing nature; they are central to the ongoing political debates and controversies.
-The dominance of negative sentiment may be attributed to pressing political issues such as governance failures, corruption allegations, and the perceived ineffectiveness of local leadership. The specific focus on leaders like Chandrababu and Pawan Kalyan suggests that public frustration may be tied to unmet expectations regarding their performance and promises.
-For political strategists and campaigners in Andhra Pradesh, these insights emphasize the need for a shift in narrative. Engaging with the electorate on these negative sentiments through transparency, accountability, and proactive communication may be crucial in reshaping public perception and regaining trust. The data strongly suggests that ignoring these sentiments could further alienate voters, while addressing them head-on could present opportunities for political recalibration and engagement.
-This cumulative summary was generated by AI based on aggregated sentiment data from 64 videos and 17 comments.</f>
+The sentiment analysis of 70 YouTube videos related to Andhra Pradesh's political landscape reveals a strikingly negative public perception, with a complete absence of positive sentiment among the processed 52 comments. This overwhelming negativity, quantified at 100%, indicates a profound discontent among viewers regarding the political situation in the state.
+Key findings underscore critical themes shaping public discourse. First, the dominance of keywords such as 'Atchannaidu,' 'YS Jagan,' and 'onion farmers' suggests a significant concern regarding agricultural policies and the leadership of both the current and former chief ministers. The explicit mention of 'onion farmers' reflects specific grievances tied to agricultural distress, highlighting a potentially volatile issue that could impact electoral prospects.
+Furthermore, the polarizing figures of 'Chandrababu Naidu' and 'Pawan Kalyan' indicate a contentious political climate, where public figures elicit strong emotional responses. The absence of positive keywords reinforces the notion that political narratives are currently dominated by criticism rather than support, suggesting that both major parties may struggle to cultivate favorable public sentiment.
+This analysis reveals an urgent need for political actors in Andhra Pradesh to address the prevailing discontent, particularly in agricultural policy and leadership accountability. Engaging with these critical issues may be essential for any party seeking to shift public sentiment and regain trust in a highly charged political environment.
+This cumulative summary was generated by AI based on aggregated sentiment data from 70 videos and 52 comments.</f>
         <v/>
       </c>
     </row>

--- a/youtube_sentiment_report.xlsx
+++ b/youtube_sentiment_report.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,16 +555,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -3419,6 +3419,43 @@
         <v>3</v>
       </c>
       <c r="I91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandrababu Naidu Speech in AP Assembly: అసెంబ్లీ </t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Asianet News Telugu</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3444,13 +3481,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8">
-        <f>== Updated 2025-10-16 21:26:33 ===
+        <f>== Updated 2025-10-16 21:55:18 ===
 AI-Generated Political Issues Analysis (Cumulative)
-The analysis of 70 YouTube videos focusing on Andhra Pradesh politics reveals significant public discontent, particularly surrounding three key issues: agricultural support, political governance, and economic development. These issues are categorized under negative sentiment, indicating a prevailing dissatisfaction with the current administration led by YS Jagan Mohan Reddy.
-One of the most prominent concerns is the criticism of Jagan's leadership regarding agricultural support, specifically the availability of fertilizers. This issue underscores a broader narrative of perceived governmental failure in addressing the needs of farmers, a crucial demographic in Andhra Pradesh's economy. Comments reflecting a failure in agricultural governance further exacerbate public sentiment, highlighting a disconnect between the government’s initiatives and the on-ground realities faced by the agricultural community.
-Moreover, public dissatisfaction with the overall effectiveness of government initiatives impacting farmers suggests a critical examination of economic development policies. This sentiment not only reveals the challenges in policy implementation but also signals a potential risk for the ruling party, as agricultural distress can have far-reaching social and electoral implications.
-In the context of Andhra Pradesh's political landscape, these findings illuminate the urgent need for the government to address these contentious issues. The lack of positive sentiment surrounding these themes indicates a pressing demand for accountability and effective governance. As discourse shifts towards these priorities, it is essential for policymakers to recalibrate their strategies, ensuring that they resonate with the public's concerns, particularly in agricultural and economic spheres.
-This cumulative analysis was generated by AI based on identified political issues from 70 videos.</f>
+The analysis of 71 YouTube videos concerning Andhra Pradesh politics reveals a landscape fraught with discontent and criticism, primarily directed at the governance of Chief Minister Jagan Mohan Reddy. The predominant issues identified span five key categories: Political Governance, Infrastructure Development, Agricultural Support, Education &amp; Healthcare, and Social Welfare Schemes. All five issues are viewed negatively, highlighting a significant disconnect between government actions and public expectations.
+The most contentious issue concerns the criticism of Jagan's governance, particularly in relation to infrastructure development. The Polavaram project, a critical infrastructure initiative, has raised allegations of inefficiency, signaling broader concerns about the state's project execution capabilities. This resonates with the public's desire for transparent and effective governance, emphasizing a call for accountability.
+Agricultural support remains a pressing issue, with complaints about delays in financial aid and educational fee releases exacerbating existing frustrations among farmers and students. These concerns reflect a deepening crisis in the agricultural sector, where timely support is vital for sustaining livelihoods.
+Additionally, the calls for improved governmental responsiveness regarding student fees and welfare communications underline systemic inefficiencies that erode public trust. The lack of positive sentiment in these discussions suggests that the current administration is struggling to align its policies with the immediate needs of its constituents.
+In conclusion, these findings not only illuminate the pressing concerns within Andhra Pradesh but also underscore a critical need for the government to engage more effectively with its citizens. The recurring themes in public discourse indicate a clear priority for accountability, efficient governance, and direct support mechanisms, which could shape the political landscape as upcoming elections draw near.
+This cumulative analysis was generated by AI based on identified political issues from 71 videos.</f>
         <v/>
       </c>
     </row>
@@ -3465,7 +3503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5935,6 +5973,42 @@
       </c>
       <c r="H68" s="4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandrababu Naidu Speech in AP Assembly: అసెంబ్లీ </t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Asianet News Telugu</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -9577,7 +9651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G179"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15502,6 +15576,138 @@
       <c r="G179" s="6" t="inlineStr">
         <is>
           <t>0.845</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="6" t="inlineStr">
+        <is>
+          <t>Jagan Mohan Reddy</t>
+        </is>
+      </c>
+      <c r="B180" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C180" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D180" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E180" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F180" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G180" s="6" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>powerful speech</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C181" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E181" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F181" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G181" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>assembly highlights</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C182" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D182" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E182" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F182" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G182" s="6" t="inlineStr">
+        <is>
+          <t>0.855</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>video play</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C183" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="E183" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F183" s="6" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="G183" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
         </is>
       </c>
     </row>
@@ -17278,7 +17484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20445,6 +20651,121 @@
         <v>1</v>
       </c>
       <c r="E137" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="inlineStr">
+        <is>
+          <t>Criticism of Jagan's governance and infrastructure development</t>
+        </is>
+      </c>
+      <c r="B138" s="6" t="inlineStr">
+        <is>
+          <t>Political Governance</t>
+        </is>
+      </c>
+      <c r="C138" s="6" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Allegations of inefficiency in project execution, like the Polavaram project</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>Infrastructure Development</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>0.750</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="inlineStr">
+        <is>
+          <t>Concerns over pending agricultural support and issues in fee releases in education</t>
+        </is>
+      </c>
+      <c r="B140" s="6" t="inlineStr">
+        <is>
+          <t>Agricultural Support</t>
+        </is>
+      </c>
+      <c r="C140" s="6" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Calls for better responsiveness from the government regarding student fees and certificates</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>Education &amp; Healthcare</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>0.680</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="inlineStr">
+        <is>
+          <t>Complaints about social welfare number and communication issues</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="inlineStr">
+        <is>
+          <t>Social Welfare Schemes</t>
+        </is>
+      </c>
+      <c r="C142" s="6" t="inlineStr">
+        <is>
+          <t>0.650</t>
+        </is>
+      </c>
+      <c r="D142" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20916,13 +21237,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8">
-        <f>== Updated 2025-10-16 21:26:27 ===
+        <f>== Updated 2025-10-16 21:55:12 ===
 AI-Generated Keyword Analysis Summary (Cumulative)
-The sentiment analysis of 70 YouTube videos related to Andhra Pradesh's political landscape reveals a strikingly negative public perception, with a complete absence of positive sentiment among the processed 52 comments. This overwhelming negativity, quantified at 100%, indicates a profound discontent among viewers regarding the political situation in the state.
-Key findings underscore critical themes shaping public discourse. First, the dominance of keywords such as 'Atchannaidu,' 'YS Jagan,' and 'onion farmers' suggests a significant concern regarding agricultural policies and the leadership of both the current and former chief ministers. The explicit mention of 'onion farmers' reflects specific grievances tied to agricultural distress, highlighting a potentially volatile issue that could impact electoral prospects.
-Furthermore, the polarizing figures of 'Chandrababu Naidu' and 'Pawan Kalyan' indicate a contentious political climate, where public figures elicit strong emotional responses. The absence of positive keywords reinforces the notion that political narratives are currently dominated by criticism rather than support, suggesting that both major parties may struggle to cultivate favorable public sentiment.
-This analysis reveals an urgent need for political actors in Andhra Pradesh to address the prevailing discontent, particularly in agricultural policy and leadership accountability. Engaging with these critical issues may be essential for any party seeking to shift public sentiment and regain trust in a highly charged political environment.
-This cumulative summary was generated by AI based on aggregated sentiment data from 70 videos and 52 comments.</f>
+The sentiment analysis of 71 YouTube videos focused on Andhra Pradesh political content reveals a starkly negative public sentiment, with an overwhelming 100% of comments analyzed reflecting dissatisfaction. This finding suggests a significant disconnect between political leadership and public perception, specifically concerning key figures such as Chandrababu Naidu and Jagan Mohan Reddy. 
+The absence of positive sentiment indicates not only discontent but also a potential crisis of legitimacy for political actors in the state. The dominance of negative keywords highlights that both leaders are central to public grievances, with criticisms surrounding their governance and performance in the AP Assembly. The phrase "powerful speech" appears paradoxically within a negative context, suggesting that while political rhetoric may be compelling, it fails to resonate positively with the electorate, pointing to a growing skepticism of promises made by these leaders.
+Furthermore, the analysis uncovers a polarized political landscape, where any discussion of Andhra Pradesh politics evokes strong reactions. This polarization indicates entrenched partisan divides, complicating the prospect for constructive political dialogue. The data suggests that future political campaigns must address these sentiments directly, focusing on transparency and accountability to rebuild trust among constituents. In a digital age where public opinion is rapidly formed and expressed, understanding this sentiment landscape is crucial for effective political strategy in Andhra Pradesh.
+This cumulative summary was generated by AI based on aggregated sentiment data from 71 videos and 62 comments.</f>
         <v/>
       </c>
     </row>
